--- a/10v10/13/Cavalier-Cup/UMD_UVA.xlsx
+++ b/10v10/13/Cavalier-Cup/UMD_UVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\13\Cavalier-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\13\Cavalier-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE80E424-71BB-4629-991E-C9107B917D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C70E9-B39B-4475-A5A3-99852CC3826C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>A</t>
   </si>
@@ -88,9 +90,6 @@
     <t>R68</t>
   </si>
   <si>
-    <t>1539</t>
-  </si>
-  <si>
     <t>23,69</t>
   </si>
   <si>
@@ -103,19 +102,10 @@
     <t>EY</t>
   </si>
   <si>
-    <t>1758</t>
-  </si>
-  <si>
-    <t>BB33</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
     <t>YB50</t>
-  </si>
-  <si>
-    <t>2521</t>
   </si>
   <si>
     <t>2YB50,YB8</t>
@@ -194,6 +184,156 @@
   </si>
   <si>
     <t>LANE BURGESS</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0256</t>
+  </si>
+  <si>
+    <t>0320</t>
+  </si>
+  <si>
+    <t>0354</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>0430</t>
+  </si>
+  <si>
+    <t>0520</t>
+  </si>
+  <si>
+    <t>0555</t>
+  </si>
+  <si>
+    <t>0645</t>
+  </si>
+  <si>
+    <t>0732</t>
+  </si>
+  <si>
+    <t>0817</t>
+  </si>
+  <si>
+    <t>0846</t>
+  </si>
+  <si>
+    <t>0924</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1304</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>S,BB33</t>
+  </si>
+  <si>
+    <t>KRISTEN COILEY</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2228</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2337</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>2522</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>2901</t>
+  </si>
+  <si>
+    <t>2845</t>
   </si>
 </sst>
 </file>
@@ -433,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +609,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,14 +628,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,7 +852,9 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -736,21 +881,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -763,40 +908,40 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="13" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13">
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")</f>
         <v>7</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="13" t="e">
-        <f ca="1">_xludf.TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$R$32,"RCA"),"*",""),IF(COUNTIF($A$7:$R$32,"OCA"),"^",""),IF(COUNTIF($A$7:$R$32,"2CA"),"!",""))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="19" t="e">
-        <f ca="1">_xludf.CONCAT(LEN(O2)*30+L2*10,O2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="24" t="str">
+        <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
+        <v>*</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="23" t="str">
+        <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
+        <v>100*</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -806,25 +951,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -834,38 +979,38 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="13">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="13" t="e">
-        <f ca="1">_xludf.TEXTJOIN("",TRUE,IF(COUNTIF($A$7:$R$32,"RCB"),"*",""),IF(COUNTIF($A$7:$R$32,"OCB"),"^",""),IF(COUNTIF($A$7:$R$32,"2CB"),"!",""))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="19" t="e">
-        <f ca="1">_xludf.CONCAT(LEN(O4)*30+L4*10,O4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="24" t="str">
+        <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
+        <v/>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="23" t="str">
+        <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
+        <v>90</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -875,25 +1020,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -934,34 +1079,46 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1062,32 +1219,44 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1118,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I11" s="11">
         <v>21</v>
@@ -1135,8 +1304,8 @@
       <c r="M11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>14</v>
+      <c r="N11" s="10">
+        <v>17</v>
       </c>
       <c r="O11" s="11">
         <v>14</v>
@@ -1192,32 +1361,44 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1250,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="10">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>17</v>
@@ -1320,32 +1501,44 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1450,34 +1643,44 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1495,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>16</v>
@@ -1504,7 +1707,7 @@
         <v>69</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -1522,10 +1725,10 @@
         <v>23</v>
       </c>
       <c r="L20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="N20" s="10">
         <v>69</v>
@@ -1580,38 +1783,48 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1623,7 +1836,7 @@
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10">
         <v>44</v>
@@ -1667,8 +1880,8 @@
       <c r="Q23" s="10">
         <v>8</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>14</v>
+      <c r="R23" s="11">
+        <v>49</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1714,32 +1927,44 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1753,17 +1978,17 @@
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>14</v>
+      <c r="B26" s="10">
+        <v>49</v>
       </c>
       <c r="C26" s="11">
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="E26" s="10">
+        <v>49</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="9" t="s">
@@ -1841,44 +2066,50 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="M28" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="7" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -1901,10 +2132,10 @@
         <v>12</v>
       </c>
       <c r="E29" s="10">
+        <v>6</v>
+      </c>
+      <c r="F29" s="11">
         <v>47</v>
-      </c>
-      <c r="F29" s="11">
-        <v>6</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>7</v>
@@ -1982,12 +2213,16 @@
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="4" t="s">
         <v>0</v>
@@ -2028,7 +2263,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>14</v>
@@ -29301,6 +29536,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29310,13 +29552,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29331,8 +29566,8 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29353,7 +29588,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29386,7 +29621,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29399,7 +29634,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29407,7 +29642,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29420,7 +29655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29433,7 +29668,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29441,7 +29676,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29458,6 +29693,9 @@
       <c r="A19" s="12">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -29474,7 +29712,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29482,7 +29720,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29490,7 +29728,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29498,10 +29736,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29529,7 +29767,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29537,7 +29775,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29560,7 +29798,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29583,7 +29821,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29621,7 +29859,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29634,7 +29872,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29642,7 +29880,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29660,7 +29898,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29758,10 +29996,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
